--- a/Notebook/model_results/PredictivePerformance.xlsx
+++ b/Notebook/model_results/PredictivePerformance.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\lsTerm-election-forecast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgross\AppData\Local\Temp\5\Mxt206\RemoteFiles\197146_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD2BF57-8505-43F0-90DA-A2622F87569E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="2280" windowWidth="26280" windowHeight="16755" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11652" yWindow="2280" windowWidth="26280" windowHeight="16752" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="14" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,19 +360,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -393,7 +392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42638</v>
       </c>
@@ -413,7 +412,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42668</v>
       </c>
@@ -433,7 +432,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42699</v>
       </c>
@@ -453,7 +452,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42729</v>
       </c>
@@ -473,7 +472,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42760</v>
       </c>
@@ -493,7 +492,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42791</v>
       </c>
@@ -513,7 +512,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42819</v>
       </c>
@@ -533,7 +532,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42850</v>
       </c>
@@ -553,7 +552,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42880</v>
       </c>
@@ -573,12 +572,12 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42911</v>
       </c>
       <c r="B12" s="2">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="C12">
         <v>3.61</v>
@@ -593,7 +592,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42941</v>
       </c>
@@ -613,7 +612,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42972</v>
       </c>
@@ -633,12 +632,12 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43001</v>
       </c>
       <c r="B15" s="2">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="C15">
         <v>1.59</v>
